--- a/notes/operations-examples.xlsx
+++ b/notes/operations-examples.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="8400" windowWidth="22700" windowHeight="18820" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="10900" yWindow="2180" windowWidth="22700" windowHeight="18820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1259,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E16"/>
     </sheetView>
   </sheetViews>
